--- a/data/CurrentSeason/DEN.xlsx
+++ b/data/CurrentSeason/DEN.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S41"/>
+  <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1281,7 +1281,7 @@
         <v>109</v>
       </c>
       <c r="E14" t="n">
-        <v>93</v>
+        <v>93.3</v>
       </c>
       <c r="F14" t="n">
         <v>0.5610000000000001</v>
@@ -1296,7 +1296,7 @@
         <v>0.207</v>
       </c>
       <c r="J14" t="n">
-        <v>117.2</v>
+        <v>116.8</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1307,19 +1307,19 @@
         <v>121</v>
       </c>
       <c r="M14" t="n">
-        <v>0.616</v>
+        <v>0.608</v>
       </c>
       <c r="N14" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="O14" t="n">
         <v>31.4</v>
       </c>
       <c r="P14" t="n">
-        <v>0.244</v>
+        <v>0.241</v>
       </c>
       <c r="Q14" t="n">
-        <v>130.1</v>
+        <v>129.7</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2972,6 +2972,67 @@
         <v>1</v>
       </c>
       <c r="S41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>45305</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2</v>
+      </c>
+      <c r="D42" t="n">
+        <v>117</v>
+      </c>
+      <c r="E42" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="G42" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="H42" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.211</v>
+      </c>
+      <c r="J42" t="n">
+        <v>119.2</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>109</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.511</v>
+      </c>
+      <c r="N42" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="O42" t="n">
+        <v>28</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.163</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>111</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1</v>
+      </c>
+      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2986,7 +3047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3013,24 +3074,24 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45305</v>
+        <v>45307</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45307</v>
+        <v>45310</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3039,11 +3100,11 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45310</v>
+        <v>45312</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3052,11 +3113,11 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45312</v>
+        <v>45314</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3065,11 +3126,11 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45314</v>
+        <v>45316</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3078,24 +3139,24 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45316</v>
+        <v>45318</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45318</v>
+        <v>45320</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -3104,33 +3165,33 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45320</v>
+        <v>45322</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45322</v>
+        <v>45324</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45324</v>
+        <v>45326</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -3143,24 +3204,24 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45326</v>
+        <v>45330</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45330</v>
+        <v>45331</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -3169,11 +3230,11 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45331</v>
+        <v>45334</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -3182,24 +3243,24 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -3208,24 +3269,24 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -3234,24 +3295,24 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45347</v>
+        <v>45350</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3260,37 +3321,37 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45351</v>
+        <v>45353</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45353</v>
+        <v>45356</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3299,11 +3360,11 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3312,11 +3373,11 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3325,24 +3386,24 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3351,11 +3412,11 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3364,11 +3425,11 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45368</v>
+        <v>45370</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3377,50 +3438,50 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3429,11 +3490,11 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3442,11 +3503,11 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3455,11 +3516,11 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3468,92 +3529,79 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45386</v>
+        <v>45388</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45388</v>
+        <v>45391</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/DEN.xlsx
+++ b/data/CurrentSeason/DEN.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S42"/>
+  <dimension ref="A1:S43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1281,7 +1281,7 @@
         <v>109</v>
       </c>
       <c r="E14" t="n">
-        <v>93.3</v>
+        <v>93</v>
       </c>
       <c r="F14" t="n">
         <v>0.5610000000000001</v>
@@ -1296,7 +1296,7 @@
         <v>0.207</v>
       </c>
       <c r="J14" t="n">
-        <v>116.8</v>
+        <v>117.2</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1307,19 +1307,19 @@
         <v>121</v>
       </c>
       <c r="M14" t="n">
-        <v>0.608</v>
+        <v>0.616</v>
       </c>
       <c r="N14" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="O14" t="n">
         <v>31.4</v>
       </c>
       <c r="P14" t="n">
-        <v>0.241</v>
+        <v>0.244</v>
       </c>
       <c r="Q14" t="n">
-        <v>129.7</v>
+        <v>130.1</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -3034,6 +3034,67 @@
       </c>
       <c r="S42" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>45307</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>121</v>
+      </c>
+      <c r="E43" t="n">
+        <v>92</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.573</v>
+      </c>
+      <c r="G43" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="H43" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="J43" t="n">
+        <v>131.5</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>126</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.664</v>
+      </c>
+      <c r="N43" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="O43" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>136.9</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3047,7 +3108,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3074,11 +3135,11 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45307</v>
+        <v>45310</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3087,11 +3148,11 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45310</v>
+        <v>45312</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3100,11 +3161,11 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45312</v>
+        <v>45314</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3113,11 +3174,11 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45314</v>
+        <v>45316</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3126,24 +3187,24 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45316</v>
+        <v>45318</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45318</v>
+        <v>45320</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3152,33 +3213,33 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45320</v>
+        <v>45322</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45322</v>
+        <v>45324</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45324</v>
+        <v>45326</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -3191,24 +3252,24 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45326</v>
+        <v>45330</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45330</v>
+        <v>45331</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -3217,11 +3278,11 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45331</v>
+        <v>45334</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -3230,24 +3291,24 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3256,24 +3317,24 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -3282,24 +3343,24 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45347</v>
+        <v>45350</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3308,37 +3369,37 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45351</v>
+        <v>45353</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45353</v>
+        <v>45356</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -3347,11 +3408,11 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3360,11 +3421,11 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3373,24 +3434,24 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -3399,11 +3460,11 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3412,11 +3473,11 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45368</v>
+        <v>45370</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3425,50 +3486,50 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3477,11 +3538,11 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3490,11 +3551,11 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3503,11 +3564,11 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3516,92 +3577,79 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45386</v>
+        <v>45388</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45388</v>
+        <v>45391</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/DEN.xlsx
+++ b/data/CurrentSeason/DEN.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S43"/>
+  <dimension ref="A1:S45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3095,6 +3095,128 @@
       </c>
       <c r="S43" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>45310</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>102</v>
+      </c>
+      <c r="E44" t="n">
+        <v>83.40000000000001</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.5679999999999999</v>
+      </c>
+      <c r="G44" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="H44" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="J44" t="n">
+        <v>122.3</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>100</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.506</v>
+      </c>
+      <c r="N44" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O44" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>119.9</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>45312</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2</v>
+      </c>
+      <c r="D45" t="n">
+        <v>113</v>
+      </c>
+      <c r="E45" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.534</v>
+      </c>
+      <c r="G45" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="H45" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.216</v>
+      </c>
+      <c r="J45" t="n">
+        <v>115.2</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>104</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="N45" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="O45" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3108,7 +3230,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3135,11 +3257,11 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45310</v>
+        <v>45314</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3148,11 +3270,11 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45312</v>
+        <v>45316</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3161,50 +3283,50 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45314</v>
+        <v>45318</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45316</v>
+        <v>45320</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45318</v>
+        <v>45322</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45320</v>
+        <v>45324</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3213,50 +3335,50 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45322</v>
+        <v>45326</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45324</v>
+        <v>45330</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45326</v>
+        <v>45331</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45330</v>
+        <v>45334</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -3265,7 +3387,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45331</v>
+        <v>45336</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -3273,94 +3395,94 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45334</v>
+        <v>45344</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45336</v>
+        <v>45345</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45344</v>
+        <v>45347</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45345</v>
+        <v>45350</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45347</v>
+        <v>45351</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45350</v>
+        <v>45353</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45351</v>
+        <v>45356</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3369,24 +3491,24 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45353</v>
+        <v>45358</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45356</v>
+        <v>45360</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -3395,11 +3517,11 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45358</v>
+        <v>45362</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -3408,37 +3530,37 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45360</v>
+        <v>45364</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45362</v>
+        <v>45366</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45364</v>
+        <v>45368</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3447,11 +3569,11 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45366</v>
+        <v>45370</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -3460,24 +3582,24 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45368</v>
+        <v>45372</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45370</v>
+        <v>45374</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3486,11 +3608,11 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45372</v>
+        <v>45376</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3499,24 +3621,24 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45374</v>
+        <v>45378</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45376</v>
+        <v>45380</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3525,11 +3647,11 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45378</v>
+        <v>45382</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3538,11 +3660,11 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45380</v>
+        <v>45384</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3551,24 +3673,24 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45382</v>
+        <v>45386</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45384</v>
+        <v>45388</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3577,11 +3699,11 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45386</v>
+        <v>45391</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3590,11 +3712,11 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45388</v>
+        <v>45392</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3603,11 +3725,11 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45391</v>
+        <v>45394</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -3616,40 +3738,14 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45392</v>
+        <v>45396</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>45394</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>SAS</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/DEN.xlsx
+++ b/data/CurrentSeason/DEN.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S45"/>
+  <dimension ref="A1:S47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3217,6 +3217,128 @@
       </c>
       <c r="S45" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="C46" t="n">
+        <v>3</v>
+      </c>
+      <c r="D46" t="n">
+        <v>114</v>
+      </c>
+      <c r="E46" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.5629999999999999</v>
+      </c>
+      <c r="G46" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="H46" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="J46" t="n">
+        <v>120.5</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>109</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.523</v>
+      </c>
+      <c r="N46" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="O46" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.207</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>115.2</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>45316</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>84</v>
+      </c>
+      <c r="E47" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G47" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="H47" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="J47" t="n">
+        <v>93</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>122</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.618</v>
+      </c>
+      <c r="N47" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="O47" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>135.1</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3230,7 +3352,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3257,50 +3379,50 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45314</v>
+        <v>45318</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45316</v>
+        <v>45320</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45318</v>
+        <v>45322</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45320</v>
+        <v>45324</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3309,50 +3431,50 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45322</v>
+        <v>45326</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45324</v>
+        <v>45330</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45326</v>
+        <v>45331</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45330</v>
+        <v>45334</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -3361,7 +3483,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45331</v>
+        <v>45336</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -3369,94 +3491,94 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45334</v>
+        <v>45344</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45336</v>
+        <v>45345</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45344</v>
+        <v>45347</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45345</v>
+        <v>45350</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45347</v>
+        <v>45351</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45350</v>
+        <v>45353</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45351</v>
+        <v>45356</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -3465,24 +3587,24 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45353</v>
+        <v>45358</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45356</v>
+        <v>45360</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3491,11 +3613,11 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45358</v>
+        <v>45362</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3504,37 +3626,37 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45360</v>
+        <v>45364</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45362</v>
+        <v>45366</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45364</v>
+        <v>45368</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3543,11 +3665,11 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45366</v>
+        <v>45370</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3556,24 +3678,24 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45368</v>
+        <v>45372</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45370</v>
+        <v>45374</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -3582,11 +3704,11 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45372</v>
+        <v>45376</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3595,24 +3717,24 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45374</v>
+        <v>45378</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45376</v>
+        <v>45380</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3621,11 +3743,11 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45378</v>
+        <v>45382</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3634,11 +3756,11 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45380</v>
+        <v>45384</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3647,24 +3769,24 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45382</v>
+        <v>45386</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45384</v>
+        <v>45388</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3673,11 +3795,11 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45386</v>
+        <v>45391</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3686,11 +3808,11 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45388</v>
+        <v>45392</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3699,11 +3821,11 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45391</v>
+        <v>45394</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3712,40 +3834,14 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45392</v>
+        <v>45396</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>45394</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>SAS</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/DEN.xlsx
+++ b/data/CurrentSeason/DEN.xlsx
@@ -17,9 +17,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -59,12 +61,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -430,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S47"/>
+  <dimension ref="A1:S48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3339,6 +3342,67 @@
       </c>
       <c r="S47" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="n">
+        <v>45318</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>111</v>
+      </c>
+      <c r="E48" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G48" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H48" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.293</v>
+      </c>
+      <c r="J48" t="n">
+        <v>121.7</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>105</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.5679999999999999</v>
+      </c>
+      <c r="N48" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="O48" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>115.1</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3352,7 +3416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3378,12 +3442,12 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45318</v>
+      <c r="A2" s="3" t="n">
+        <v>45320</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3391,457 +3455,444 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45320</v>
+      <c r="A3" s="3" t="n">
+        <v>45322</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>45324</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>45326</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45330</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>45331</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>45334</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>MIL</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45322</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>OKC</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45324</v>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>45336</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>45344</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>45345</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>POR</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45326</v>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>45347</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>45350</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>45351</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>45353</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>45356</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>PHO</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>45358</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>45360</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>45362</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>45364</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
+        <v>45366</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>45368</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>45370</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>45372</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n">
+        <v>45374</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>POR</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45330</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45331</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>SAC</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45334</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>MIL</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45336</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>SAC</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45344</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>WAS</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45345</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45347</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>GSW</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>45350</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>SAC</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>45351</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>MIA</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45353</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>45356</v>
-      </c>
-      <c r="B17" t="inlineStr">
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n">
+        <v>45376</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>45378</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>PHO</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>45358</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>45360</v>
-      </c>
-      <c r="B19" t="inlineStr">
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n">
+        <v>45380</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n">
+        <v>45382</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="n">
+        <v>45384</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="n">
+        <v>45386</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="n">
+        <v>45388</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="n">
+        <v>45391</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>UTA</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45362</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>TOR</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45364</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>MIA</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>45366</v>
-      </c>
-      <c r="B22" t="inlineStr">
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="n">
+        <v>45392</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="n">
+        <v>45394</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>SAS</t>
         </is>
       </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>45368</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45370</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>45372</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>NYK</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>45374</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>45376</v>
-      </c>
-      <c r="B27" t="inlineStr">
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="n">
+        <v>45396</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>MEM</t>
         </is>
       </c>
-      <c r="C27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>45378</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>PHO</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>45380</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>45382</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>45384</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>SAS</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>45386</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>LAC</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>45388</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>ATL</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>45391</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>UTA</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>45392</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>45394</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>SAS</t>
-        </is>
-      </c>
       <c r="C36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/DEN.xlsx
+++ b/data/CurrentSeason/DEN.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S48"/>
+  <dimension ref="A1:S49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3348,7 +3348,7 @@
       <c r="A48" t="n">
         <v>47</v>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="2" t="n">
         <v>45318</v>
       </c>
       <c r="C48" t="n">
@@ -3402,6 +3402,67 @@
         <v>1</v>
       </c>
       <c r="S48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2</v>
+      </c>
+      <c r="D49" t="n">
+        <v>113</v>
+      </c>
+      <c r="E49" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="G49" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="H49" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.231</v>
+      </c>
+      <c r="J49" t="n">
+        <v>115.4</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>107</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.524</v>
+      </c>
+      <c r="N49" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="O49" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.226</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>109.3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1</v>
+      </c>
+      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3416,7 +3477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3443,33 +3504,33 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45320</v>
+        <v>45322</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45322</v>
+        <v>45324</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45324</v>
+        <v>45326</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -3482,24 +3543,24 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45326</v>
+        <v>45330</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45330</v>
+        <v>45331</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3508,11 +3569,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45331</v>
+        <v>45334</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3521,24 +3582,24 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -3547,24 +3608,24 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -3573,24 +3634,24 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45347</v>
+        <v>45350</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -3599,37 +3660,37 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45351</v>
+        <v>45353</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45353</v>
+        <v>45356</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -3638,11 +3699,11 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -3651,11 +3712,11 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -3664,24 +3725,24 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3690,11 +3751,11 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -3703,11 +3764,11 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45368</v>
+        <v>45370</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -3716,50 +3777,50 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -3768,11 +3829,11 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3781,11 +3842,11 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3794,11 +3855,11 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3807,92 +3868,79 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>45386</v>
+        <v>45388</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>45388</v>
+        <v>45391</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/DEN.xlsx
+++ b/data/CurrentSeason/DEN.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S49"/>
+  <dimension ref="A1:S50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3464,6 +3464,67 @@
       </c>
       <c r="S49" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="n">
+        <v>45322</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>100</v>
+      </c>
+      <c r="E50" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.478</v>
+      </c>
+      <c r="G50" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="H50" t="n">
+        <v>24</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="J50" t="n">
+        <v>108.1</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>105</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.489</v>
+      </c>
+      <c r="N50" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="O50" t="n">
+        <v>30</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3477,7 +3538,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3504,20 +3565,20 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45322</v>
+        <v>45324</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45324</v>
+        <v>45326</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -3530,24 +3591,24 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45326</v>
+        <v>45330</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45330</v>
+        <v>45331</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3556,11 +3617,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45331</v>
+        <v>45334</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3569,24 +3630,24 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -3595,24 +3656,24 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3621,24 +3682,24 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45347</v>
+        <v>45350</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -3647,37 +3708,37 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45351</v>
+        <v>45353</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45353</v>
+        <v>45356</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3686,11 +3747,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -3699,11 +3760,11 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -3712,24 +3773,24 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3738,11 +3799,11 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3751,11 +3812,11 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45368</v>
+        <v>45370</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -3764,50 +3825,50 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3816,11 +3877,11 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -3829,11 +3890,11 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3842,11 +3903,11 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3855,92 +3916,79 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45386</v>
+        <v>45388</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>45388</v>
+        <v>45391</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/DEN.xlsx
+++ b/data/CurrentSeason/DEN.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S50"/>
+  <dimension ref="A1:S51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3470,7 +3470,7 @@
       <c r="A50" t="n">
         <v>49</v>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="2" t="n">
         <v>45322</v>
       </c>
       <c r="C50" t="n">
@@ -3525,6 +3525,67 @@
       </c>
       <c r="S50" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="n">
+        <v>45324</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>120</v>
+      </c>
+      <c r="E51" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="G51" t="n">
+        <v>10</v>
+      </c>
+      <c r="H51" t="n">
+        <v>40</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="J51" t="n">
+        <v>136.2</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>108</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="N51" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="O51" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>122.6</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3538,7 +3599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3565,7 +3626,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45324</v>
+        <v>45326</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -3578,24 +3639,24 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45326</v>
+        <v>45330</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45330</v>
+        <v>45331</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3604,11 +3665,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45331</v>
+        <v>45334</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3617,24 +3678,24 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3643,24 +3704,24 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -3669,24 +3730,24 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45347</v>
+        <v>45350</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -3695,37 +3756,37 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45351</v>
+        <v>45353</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45353</v>
+        <v>45356</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -3734,11 +3795,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3747,11 +3808,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -3760,24 +3821,24 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -3786,11 +3847,11 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3799,11 +3860,11 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45368</v>
+        <v>45370</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3812,50 +3873,50 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3864,11 +3925,11 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3877,11 +3938,11 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -3890,11 +3951,11 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3903,92 +3964,79 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45386</v>
+        <v>45388</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45388</v>
+        <v>45391</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/DEN.xlsx
+++ b/data/CurrentSeason/DEN.xlsx
@@ -3531,7 +3531,7 @@
       <c r="A51" t="n">
         <v>50</v>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="2" t="n">
         <v>45324</v>
       </c>
       <c r="C51" t="n">

--- a/data/CurrentSeason/DEN.xlsx
+++ b/data/CurrentSeason/DEN.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S51"/>
+  <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3585,6 +3585,67 @@
         <v>1</v>
       </c>
       <c r="S51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="n">
+        <v>45326</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2</v>
+      </c>
+      <c r="D52" t="n">
+        <v>112</v>
+      </c>
+      <c r="E52" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.5580000000000001</v>
+      </c>
+      <c r="G52" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H52" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="J52" t="n">
+        <v>130</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>103</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.524</v>
+      </c>
+      <c r="N52" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="O52" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>119.5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1</v>
+      </c>
+      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3599,7 +3660,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3626,24 +3687,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45326</v>
+        <v>45330</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45330</v>
+        <v>45331</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3652,11 +3713,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45331</v>
+        <v>45334</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3665,24 +3726,24 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3691,24 +3752,24 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -3717,24 +3778,24 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45347</v>
+        <v>45350</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3743,37 +3804,37 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45351</v>
+        <v>45353</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45353</v>
+        <v>45356</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -3782,11 +3843,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -3795,11 +3856,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3808,24 +3869,24 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -3834,11 +3895,11 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -3847,11 +3908,11 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45368</v>
+        <v>45370</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3860,50 +3921,50 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3912,11 +3973,11 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3925,11 +3986,11 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3938,11 +3999,11 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -3951,92 +4012,79 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45386</v>
+        <v>45388</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45388</v>
+        <v>45391</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/DEN.xlsx
+++ b/data/CurrentSeason/DEN.xlsx
@@ -3592,7 +3592,7 @@
       <c r="A52" t="n">
         <v>51</v>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="2" t="n">
         <v>45326</v>
       </c>
       <c r="C52" t="n">

--- a/data/CurrentSeason/DEN.xlsx
+++ b/data/CurrentSeason/DEN.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S52"/>
+  <dimension ref="A1:S54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3647,6 +3647,128 @@
       </c>
       <c r="S52" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="n">
+        <v>45330</v>
+      </c>
+      <c r="C53" t="n">
+        <v>3</v>
+      </c>
+      <c r="D53" t="n">
+        <v>114</v>
+      </c>
+      <c r="E53" t="n">
+        <v>94</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="G53" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="H53" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="J53" t="n">
+        <v>121.3</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>106</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.506</v>
+      </c>
+      <c r="N53" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="O53" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>112.8</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="n">
+        <v>45331</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>106</v>
+      </c>
+      <c r="E54" t="n">
+        <v>103.4</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.524</v>
+      </c>
+      <c r="G54" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="H54" t="n">
+        <v>20</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.244</v>
+      </c>
+      <c r="J54" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>135</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="N54" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="O54" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>130.6</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3660,7 +3782,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3687,11 +3809,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45330</v>
+        <v>45334</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3700,7 +3822,7 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45331</v>
+        <v>45336</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -3708,94 +3830,94 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45334</v>
+        <v>45344</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45336</v>
+        <v>45345</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45344</v>
+        <v>45347</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45345</v>
+        <v>45350</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45347</v>
+        <v>45351</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45350</v>
+        <v>45353</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45351</v>
+        <v>45356</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3804,24 +3926,24 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45353</v>
+        <v>45358</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45356</v>
+        <v>45360</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -3830,11 +3952,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45358</v>
+        <v>45362</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -3843,37 +3965,37 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45360</v>
+        <v>45364</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45362</v>
+        <v>45366</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45364</v>
+        <v>45368</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -3882,11 +4004,11 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45366</v>
+        <v>45370</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -3895,24 +4017,24 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45368</v>
+        <v>45372</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45370</v>
+        <v>45374</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3921,11 +4043,11 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45372</v>
+        <v>45376</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3934,24 +4056,24 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45374</v>
+        <v>45378</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45376</v>
+        <v>45380</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -3960,11 +4082,11 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45378</v>
+        <v>45382</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3973,11 +4095,11 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45380</v>
+        <v>45384</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3986,24 +4108,24 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45382</v>
+        <v>45386</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45384</v>
+        <v>45388</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -4012,11 +4134,11 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45386</v>
+        <v>45391</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -4025,11 +4147,11 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45388</v>
+        <v>45392</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -4038,11 +4160,11 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45391</v>
+        <v>45394</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -4051,40 +4173,14 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45392</v>
+        <v>45396</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="3" t="n">
-        <v>45394</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>SAS</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/DEN.xlsx
+++ b/data/CurrentSeason/DEN.xlsx
@@ -3653,7 +3653,7 @@
       <c r="A53" t="n">
         <v>52</v>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="2" t="n">
         <v>45330</v>
       </c>
       <c r="C53" t="n">
@@ -3714,7 +3714,7 @@
       <c r="A54" t="n">
         <v>53</v>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="2" t="n">
         <v>45331</v>
       </c>
       <c r="C54" t="n">

--- a/data/CurrentSeason/DEN.xlsx
+++ b/data/CurrentSeason/DEN.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S54"/>
+  <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3768,6 +3768,67 @@
         <v>0</v>
       </c>
       <c r="S54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="n">
+        <v>45334</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D55" t="n">
+        <v>95</v>
+      </c>
+      <c r="E55" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.441</v>
+      </c>
+      <c r="G55" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="H55" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="J55" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>112</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="N55" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="O55" t="n">
+        <v>20</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>115.3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3782,7 +3843,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3809,24 +3870,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3835,24 +3896,24 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3861,24 +3922,24 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45347</v>
+        <v>45350</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3887,37 +3948,37 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45351</v>
+        <v>45353</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45353</v>
+        <v>45356</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3926,11 +3987,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -3939,11 +4000,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -3952,24 +4013,24 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -3978,11 +4039,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3991,11 +4052,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45368</v>
+        <v>45370</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4004,50 +4065,50 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4056,11 +4117,11 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -4069,11 +4130,11 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -4082,11 +4143,11 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -4095,92 +4156,79 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45386</v>
+        <v>45388</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45388</v>
+        <v>45391</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/DEN.xlsx
+++ b/data/CurrentSeason/DEN.xlsx
@@ -3775,7 +3775,7 @@
       <c r="A55" t="n">
         <v>54</v>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="2" t="n">
         <v>45334</v>
       </c>
       <c r="C55" t="n">

--- a/data/CurrentSeason/DEN.xlsx
+++ b/data/CurrentSeason/DEN.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S55"/>
+  <dimension ref="A1:S56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3829,6 +3829,67 @@
         <v>0</v>
       </c>
       <c r="S55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="n">
+        <v>45336</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D56" t="n">
+        <v>98</v>
+      </c>
+      <c r="E56" t="n">
+        <v>97</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="G56" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="H56" t="n">
+        <v>24</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="J56" t="n">
+        <v>101</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>102</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.489</v>
+      </c>
+      <c r="N56" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="O56" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>105.1</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1</v>
+      </c>
+      <c r="S56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3843,7 +3904,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3870,11 +3931,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3883,24 +3944,24 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3909,24 +3970,24 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45347</v>
+        <v>45350</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3935,37 +3996,37 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45351</v>
+        <v>45353</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45353</v>
+        <v>45356</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -3974,11 +4035,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3987,11 +4048,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4000,24 +4061,24 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4026,11 +4087,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4039,11 +4100,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45368</v>
+        <v>45370</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4052,50 +4113,50 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4104,11 +4165,11 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4117,11 +4178,11 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -4130,11 +4191,11 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -4143,92 +4204,79 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45386</v>
+        <v>45388</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45388</v>
+        <v>45391</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/DEN.xlsx
+++ b/data/CurrentSeason/DEN.xlsx
@@ -3836,7 +3836,7 @@
       <c r="A56" t="n">
         <v>55</v>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="2" t="n">
         <v>45336</v>
       </c>
       <c r="C56" t="n">

--- a/data/CurrentSeason/DEN.xlsx
+++ b/data/CurrentSeason/DEN.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S56"/>
+  <dimension ref="A1:S57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3891,6 +3891,67 @@
       </c>
       <c r="S56" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3" t="n">
+        <v>45344</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="n">
+        <v>130</v>
+      </c>
+      <c r="E57" t="n">
+        <v>109.2</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.589</v>
+      </c>
+      <c r="G57" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="H57" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.109</v>
+      </c>
+      <c r="J57" t="n">
+        <v>119</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>110</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.466</v>
+      </c>
+      <c r="N57" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="O57" t="n">
+        <v>23</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3904,7 +3965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3931,24 +3992,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3957,24 +4018,24 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45347</v>
+        <v>45350</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3983,37 +4044,37 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45351</v>
+        <v>45353</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45353</v>
+        <v>45356</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4022,11 +4083,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4035,11 +4096,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4048,24 +4109,24 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4074,11 +4135,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4087,11 +4148,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45368</v>
+        <v>45370</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4100,50 +4161,50 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4152,11 +4213,11 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4165,11 +4226,11 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4178,11 +4239,11 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -4191,92 +4252,79 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45386</v>
+        <v>45388</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45388</v>
+        <v>45391</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/DEN.xlsx
+++ b/data/CurrentSeason/DEN.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S57"/>
+  <dimension ref="A1:S58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3897,7 +3897,7 @@
       <c r="A57" t="n">
         <v>56</v>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="2" t="n">
         <v>45344</v>
       </c>
       <c r="C57" t="n">
@@ -3951,6 +3951,67 @@
         <v>1</v>
       </c>
       <c r="S57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2</v>
+      </c>
+      <c r="D58" t="n">
+        <v>127</v>
+      </c>
+      <c r="E58" t="n">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="G58" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="H58" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="J58" t="n">
+        <v>132.5</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>112</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="N58" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="O58" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>116.8</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3965,7 +4026,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3992,11 +4053,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4005,24 +4066,24 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45347</v>
+        <v>45350</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4031,37 +4092,37 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45351</v>
+        <v>45353</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45353</v>
+        <v>45356</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4070,11 +4131,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4083,11 +4144,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4096,24 +4157,24 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4122,11 +4183,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4135,11 +4196,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45368</v>
+        <v>45370</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4148,50 +4209,50 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4200,11 +4261,11 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4213,11 +4274,11 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4226,11 +4287,11 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4239,92 +4300,79 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45386</v>
+        <v>45388</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45388</v>
+        <v>45391</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/DEN.xlsx
+++ b/data/CurrentSeason/DEN.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S58"/>
+  <dimension ref="A1:S59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4012,6 +4012,67 @@
         <v>0</v>
       </c>
       <c r="S58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="n">
+        <v>45347</v>
+      </c>
+      <c r="C59" t="n">
+        <v>3</v>
+      </c>
+      <c r="D59" t="n">
+        <v>119</v>
+      </c>
+      <c r="E59" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.551</v>
+      </c>
+      <c r="G59" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="H59" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J59" t="n">
+        <v>123.8</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>103</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N59" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="O59" t="n">
+        <v>25</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.272</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>107.1</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4026,7 +4087,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4053,24 +4114,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45347</v>
+        <v>45350</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4079,37 +4140,37 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45351</v>
+        <v>45353</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45353</v>
+        <v>45356</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4118,11 +4179,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4131,11 +4192,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4144,24 +4205,24 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4170,11 +4231,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4183,11 +4244,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45368</v>
+        <v>45370</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4196,50 +4257,50 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4248,11 +4309,11 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4261,11 +4322,11 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4274,11 +4335,11 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4287,92 +4348,79 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45386</v>
+        <v>45388</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45388</v>
+        <v>45391</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/DEN.xlsx
+++ b/data/CurrentSeason/DEN.xlsx
@@ -4019,7 +4019,7 @@
       <c r="A59" t="n">
         <v>58</v>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="2" t="n">
         <v>45347</v>
       </c>
       <c r="C59" t="n">

--- a/data/CurrentSeason/DEN.xlsx
+++ b/data/CurrentSeason/DEN.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S59"/>
+  <dimension ref="A1:S60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4073,6 +4073,67 @@
         <v>0</v>
       </c>
       <c r="S59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C60" t="n">
+        <v>4</v>
+      </c>
+      <c r="D60" t="n">
+        <v>117</v>
+      </c>
+      <c r="E60" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.622</v>
+      </c>
+      <c r="G60" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="H60" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="J60" t="n">
+        <v>119.5</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>96</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="N60" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="O60" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>98</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1</v>
+      </c>
+      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4087,7 +4148,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4114,11 +4175,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4127,37 +4188,37 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45351</v>
+        <v>45353</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45353</v>
+        <v>45356</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4166,11 +4227,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4179,11 +4240,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4192,24 +4253,24 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4218,11 +4279,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4231,11 +4292,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45368</v>
+        <v>45370</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4244,50 +4305,50 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4296,11 +4357,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4309,11 +4370,11 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4322,11 +4383,11 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4335,92 +4396,79 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45386</v>
+        <v>45388</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45388</v>
+        <v>45391</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/DEN.xlsx
+++ b/data/CurrentSeason/DEN.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S60"/>
+  <dimension ref="A1:S61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4080,7 +4080,7 @@
       <c r="A60" t="n">
         <v>59</v>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="2" t="n">
         <v>45350</v>
       </c>
       <c r="C60" t="n">
@@ -4134,6 +4134,67 @@
         <v>1</v>
       </c>
       <c r="S60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="n">
+        <v>45351</v>
+      </c>
+      <c r="C61" t="n">
+        <v>5</v>
+      </c>
+      <c r="D61" t="n">
+        <v>103</v>
+      </c>
+      <c r="E61" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G61" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="H61" t="n">
+        <v>20</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.226</v>
+      </c>
+      <c r="J61" t="n">
+        <v>107</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>97</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.464</v>
+      </c>
+      <c r="N61" t="n">
+        <v>13</v>
+      </c>
+      <c r="O61" t="n">
+        <v>22</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.241</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1</v>
+      </c>
+      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4148,7 +4209,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4175,37 +4236,37 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45351</v>
+        <v>45353</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45353</v>
+        <v>45356</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4214,11 +4275,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4227,11 +4288,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4240,24 +4301,24 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4266,11 +4327,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4279,11 +4340,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45368</v>
+        <v>45370</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4292,50 +4353,50 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4344,11 +4405,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4357,11 +4418,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4370,11 +4431,11 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4383,92 +4444,79 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45386</v>
+        <v>45388</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45388</v>
+        <v>45391</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/DEN.xlsx
+++ b/data/CurrentSeason/DEN.xlsx
@@ -4141,7 +4141,7 @@
       <c r="A61" t="n">
         <v>60</v>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="2" t="n">
         <v>45351</v>
       </c>
       <c r="C61" t="n">

--- a/data/CurrentSeason/DEN.xlsx
+++ b/data/CurrentSeason/DEN.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S61"/>
+  <dimension ref="A1:S62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4195,6 +4195,67 @@
         <v>1</v>
       </c>
       <c r="S61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C62" t="n">
+        <v>6</v>
+      </c>
+      <c r="D62" t="n">
+        <v>124</v>
+      </c>
+      <c r="E62" t="n">
+        <v>93.2</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.647</v>
+      </c>
+      <c r="G62" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="H62" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="J62" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>114</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="N62" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="O62" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>122.3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
+      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4209,7 +4270,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4236,24 +4297,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45353</v>
+        <v>45356</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4262,11 +4323,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4275,11 +4336,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4288,24 +4349,24 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4314,11 +4375,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4327,11 +4388,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45368</v>
+        <v>45370</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4340,50 +4401,50 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4392,11 +4453,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4405,11 +4466,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4418,11 +4479,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4431,92 +4492,79 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45386</v>
+        <v>45388</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45388</v>
+        <v>45391</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/DEN.xlsx
+++ b/data/CurrentSeason/DEN.xlsx
@@ -4202,7 +4202,7 @@
       <c r="A62" t="n">
         <v>61</v>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="2" t="n">
         <v>45353</v>
       </c>
       <c r="C62" t="n">

--- a/data/CurrentSeason/DEN.xlsx
+++ b/data/CurrentSeason/DEN.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S62"/>
+  <dimension ref="A1:S63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4257,6 +4257,67 @@
       </c>
       <c r="S62" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3" t="n">
+        <v>45356</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D63" t="n">
+        <v>107</v>
+      </c>
+      <c r="E63" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="G63" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="H63" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="J63" t="n">
+        <v>104.1</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>PHO</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>117</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.516</v>
+      </c>
+      <c r="N63" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="O63" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>113.8</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4270,7 +4331,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4297,11 +4358,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4310,11 +4371,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4323,11 +4384,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4336,24 +4397,24 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4362,11 +4423,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4375,11 +4436,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45368</v>
+        <v>45370</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4388,50 +4449,50 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4440,11 +4501,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4453,11 +4514,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4466,11 +4527,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4479,92 +4540,79 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45386</v>
+        <v>45388</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45388</v>
+        <v>45391</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/DEN.xlsx
+++ b/data/CurrentSeason/DEN.xlsx
@@ -4263,7 +4263,7 @@
       <c r="A63" t="n">
         <v>62</v>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="2" t="n">
         <v>45356</v>
       </c>
       <c r="C63" t="n">

--- a/data/CurrentSeason/DEN.xlsx
+++ b/data/CurrentSeason/DEN.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S63"/>
+  <dimension ref="A1:S64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4318,6 +4318,67 @@
       </c>
       <c r="S63" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" t="n">
+        <v>115</v>
+      </c>
+      <c r="E64" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.522</v>
+      </c>
+      <c r="G64" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H64" t="n">
+        <v>19</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="J64" t="n">
+        <v>117.5</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>109</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.511</v>
+      </c>
+      <c r="N64" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="O64" t="n">
+        <v>26</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>111.4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4331,7 +4392,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4358,11 +4419,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4371,11 +4432,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4384,24 +4445,24 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4410,11 +4471,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4423,11 +4484,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45368</v>
+        <v>45370</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4436,50 +4497,50 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4488,11 +4549,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4501,11 +4562,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4514,11 +4575,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4527,92 +4588,79 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45386</v>
+        <v>45388</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45388</v>
+        <v>45391</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/DEN.xlsx
+++ b/data/CurrentSeason/DEN.xlsx
@@ -4324,7 +4324,7 @@
       <c r="A64" t="n">
         <v>63</v>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="2" t="n">
         <v>45358</v>
       </c>
       <c r="C64" t="n">

--- a/data/CurrentSeason/DEN.xlsx
+++ b/data/CurrentSeason/DEN.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S64"/>
+  <dimension ref="A1:S65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4378,6 +4378,67 @@
         <v>1</v>
       </c>
       <c r="S64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2</v>
+      </c>
+      <c r="D65" t="n">
+        <v>142</v>
+      </c>
+      <c r="E65" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.777</v>
+      </c>
+      <c r="G65" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="H65" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="J65" t="n">
+        <v>142.9</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>121</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.543</v>
+      </c>
+      <c r="N65" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="O65" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>121.8</v>
+      </c>
+      <c r="R65" t="n">
+        <v>1</v>
+      </c>
+      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4392,7 +4453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4419,11 +4480,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4432,24 +4493,24 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4458,11 +4519,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4471,11 +4532,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45368</v>
+        <v>45370</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4484,50 +4545,50 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4536,11 +4597,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4549,11 +4610,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4562,11 +4623,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4575,92 +4636,79 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45386</v>
+        <v>45388</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45388</v>
+        <v>45391</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/DEN.xlsx
+++ b/data/CurrentSeason/DEN.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S65"/>
+  <dimension ref="A1:S66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4385,7 +4385,7 @@
       <c r="A65" t="n">
         <v>64</v>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="2" t="n">
         <v>45360</v>
       </c>
       <c r="C65" t="n">
@@ -4439,6 +4439,67 @@
         <v>1</v>
       </c>
       <c r="S65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C66" t="n">
+        <v>3</v>
+      </c>
+      <c r="D66" t="n">
+        <v>125</v>
+      </c>
+      <c r="E66" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G66" t="n">
+        <v>8</v>
+      </c>
+      <c r="H66" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="J66" t="n">
+        <v>126.9</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>119</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="N66" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="O66" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>120.8</v>
+      </c>
+      <c r="R66" t="n">
+        <v>1</v>
+      </c>
+      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4453,7 +4514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4480,24 +4541,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4506,11 +4567,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4519,11 +4580,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45368</v>
+        <v>45370</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4532,50 +4593,50 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4584,11 +4645,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4597,11 +4658,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4610,11 +4671,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4623,92 +4684,79 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45386</v>
+        <v>45388</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45388</v>
+        <v>45391</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/DEN.xlsx
+++ b/data/CurrentSeason/DEN.xlsx
@@ -4446,7 +4446,7 @@
       <c r="A66" t="n">
         <v>65</v>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="2" t="n">
         <v>45362</v>
       </c>
       <c r="C66" t="n">

--- a/data/CurrentSeason/DEN.xlsx
+++ b/data/CurrentSeason/DEN.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S66"/>
+  <dimension ref="A1:S67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4500,6 +4500,67 @@
         <v>1</v>
       </c>
       <c r="S66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3" t="n">
+        <v>45364</v>
+      </c>
+      <c r="C67" t="n">
+        <v>4</v>
+      </c>
+      <c r="D67" t="n">
+        <v>100</v>
+      </c>
+      <c r="E67" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="G67" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="H67" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>88</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.456</v>
+      </c>
+      <c r="N67" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="O67" t="n">
+        <v>19</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
+      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4514,7 +4575,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4541,11 +4602,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4554,11 +4615,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4567,11 +4628,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45368</v>
+        <v>45370</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4580,50 +4641,50 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4632,11 +4693,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4645,11 +4706,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4658,11 +4719,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4671,92 +4732,79 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45386</v>
+        <v>45388</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45388</v>
+        <v>45391</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/DEN.xlsx
+++ b/data/CurrentSeason/DEN.xlsx
@@ -4507,7 +4507,7 @@
       <c r="A67" t="n">
         <v>66</v>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="2" t="n">
         <v>45364</v>
       </c>
       <c r="C67" t="n">

--- a/data/CurrentSeason/DEN.xlsx
+++ b/data/CurrentSeason/DEN.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S67"/>
+  <dimension ref="A1:S68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4561,6 +4561,67 @@
         <v>0</v>
       </c>
       <c r="S67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3" t="n">
+        <v>45366</v>
+      </c>
+      <c r="C68" t="n">
+        <v>5</v>
+      </c>
+      <c r="D68" t="n">
+        <v>117</v>
+      </c>
+      <c r="E68" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.607</v>
+      </c>
+      <c r="G68" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="H68" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="J68" t="n">
+        <v>121</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>106</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="N68" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="O68" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0.259</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
+      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4575,7 +4636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4602,11 +4663,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4615,11 +4676,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45368</v>
+        <v>45370</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4628,50 +4689,50 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4680,11 +4741,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4693,11 +4754,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4706,11 +4767,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4719,92 +4780,79 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45386</v>
+        <v>45388</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45388</v>
+        <v>45391</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/DEN.xlsx
+++ b/data/CurrentSeason/DEN.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S68"/>
+  <dimension ref="A1:S70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4568,7 +4568,7 @@
       <c r="A68" t="n">
         <v>67</v>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="2" t="n">
         <v>45366</v>
       </c>
       <c r="C68" t="n">
@@ -4622,6 +4622,128 @@
         <v>0</v>
       </c>
       <c r="S68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3" t="n">
+        <v>45368</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D69" t="n">
+        <v>105</v>
+      </c>
+      <c r="E69" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.512</v>
+      </c>
+      <c r="G69" t="n">
+        <v>7</v>
+      </c>
+      <c r="H69" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.226</v>
+      </c>
+      <c r="J69" t="n">
+        <v>112.6</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>107</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="N69" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="O69" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3" t="n">
+        <v>45370</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" t="n">
+        <v>115</v>
+      </c>
+      <c r="E70" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="G70" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="H70" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="J70" t="n">
+        <v>120.4</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>112</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="N70" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="O70" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>117.3</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
+      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4636,7 +4758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4663,24 +4785,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45368</v>
+        <v>45372</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45370</v>
+        <v>45374</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4689,11 +4811,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45372</v>
+        <v>45376</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4702,24 +4824,24 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45374</v>
+        <v>45378</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45376</v>
+        <v>45380</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4728,11 +4850,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45378</v>
+        <v>45382</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4741,11 +4863,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45380</v>
+        <v>45384</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4754,24 +4876,24 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45382</v>
+        <v>45386</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45384</v>
+        <v>45388</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4780,11 +4902,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45386</v>
+        <v>45391</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4793,11 +4915,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45388</v>
+        <v>45392</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4806,11 +4928,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45391</v>
+        <v>45394</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4819,40 +4941,14 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45392</v>
+        <v>45396</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="n">
-        <v>45394</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>SAS</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/DEN.xlsx
+++ b/data/CurrentSeason/DEN.xlsx
@@ -4629,7 +4629,7 @@
       <c r="A69" t="n">
         <v>68</v>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="2" t="n">
         <v>45368</v>
       </c>
       <c r="C69" t="n">
@@ -4690,7 +4690,7 @@
       <c r="A70" t="n">
         <v>69</v>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="2" t="n">
         <v>45370</v>
       </c>
       <c r="C70" t="n">

--- a/data/CurrentSeason/DEN.xlsx
+++ b/data/CurrentSeason/DEN.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S70"/>
+  <dimension ref="A1:S71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4744,6 +4744,67 @@
         <v>0</v>
       </c>
       <c r="S70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3" t="n">
+        <v>45372</v>
+      </c>
+      <c r="C71" t="n">
+        <v>2</v>
+      </c>
+      <c r="D71" t="n">
+        <v>113</v>
+      </c>
+      <c r="E71" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="G71" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="H71" t="n">
+        <v>25</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="J71" t="n">
+        <v>125.1</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>100</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.551</v>
+      </c>
+      <c r="N71" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="O71" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>110.7</v>
+      </c>
+      <c r="R71" t="n">
+        <v>1</v>
+      </c>
+      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4758,7 +4819,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4785,37 +4846,37 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4824,11 +4885,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4837,11 +4898,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4850,11 +4911,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4863,92 +4924,79 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45386</v>
+        <v>45388</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45388</v>
+        <v>45391</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/DEN.xlsx
+++ b/data/CurrentSeason/DEN.xlsx
@@ -4751,7 +4751,7 @@
       <c r="A71" t="n">
         <v>70</v>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="2" t="n">
         <v>45372</v>
       </c>
       <c r="C71" t="n">

--- a/data/CurrentSeason/DEN.xlsx
+++ b/data/CurrentSeason/DEN.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S71"/>
+  <dimension ref="A1:S72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4805,6 +4805,67 @@
         <v>1</v>
       </c>
       <c r="S71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3" t="n">
+        <v>45374</v>
+      </c>
+      <c r="C72" t="n">
+        <v>3</v>
+      </c>
+      <c r="D72" t="n">
+        <v>114</v>
+      </c>
+      <c r="E72" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="G72" t="n">
+        <v>11</v>
+      </c>
+      <c r="H72" t="n">
+        <v>38</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.264</v>
+      </c>
+      <c r="J72" t="n">
+        <v>117.1</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>111</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.516</v>
+      </c>
+      <c r="N72" t="n">
+        <v>13</v>
+      </c>
+      <c r="O72" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0.161</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>114.1</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
+      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4819,7 +4880,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4846,24 +4907,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4872,11 +4933,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4885,11 +4946,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4898,11 +4959,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4911,92 +4972,79 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45386</v>
+        <v>45388</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45388</v>
+        <v>45391</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/DEN.xlsx
+++ b/data/CurrentSeason/DEN.xlsx
@@ -4812,7 +4812,7 @@
       <c r="A72" t="n">
         <v>71</v>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="2" t="n">
         <v>45374</v>
       </c>
       <c r="C72" t="n">

--- a/data/CurrentSeason/DEN.xlsx
+++ b/data/CurrentSeason/DEN.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S72"/>
+  <dimension ref="A1:S73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4866,6 +4866,67 @@
         <v>0</v>
       </c>
       <c r="S72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3" t="n">
+        <v>45376</v>
+      </c>
+      <c r="C73" t="n">
+        <v>4</v>
+      </c>
+      <c r="D73" t="n">
+        <v>128</v>
+      </c>
+      <c r="E73" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="G73" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="H73" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.189</v>
+      </c>
+      <c r="J73" t="n">
+        <v>132.4</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>103</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="N73" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="O73" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0.191</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>106.6</v>
+      </c>
+      <c r="R73" t="n">
+        <v>1</v>
+      </c>
+      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4880,7 +4941,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4907,11 +4968,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4920,11 +4981,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4933,11 +4994,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4946,11 +5007,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4959,92 +5020,79 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45386</v>
+        <v>45388</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45388</v>
+        <v>45391</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/DEN.xlsx
+++ b/data/CurrentSeason/DEN.xlsx
@@ -4873,7 +4873,7 @@
       <c r="A73" t="n">
         <v>72</v>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="2" t="n">
         <v>45376</v>
       </c>
       <c r="C73" t="n">

--- a/data/CurrentSeason/DEN.xlsx
+++ b/data/CurrentSeason/DEN.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S73"/>
+  <dimension ref="A1:S74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4928,6 +4928,67 @@
       </c>
       <c r="S73" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3" t="n">
+        <v>45378</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D74" t="n">
+        <v>97</v>
+      </c>
+      <c r="E74" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.489</v>
+      </c>
+      <c r="G74" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="H74" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="J74" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>PHO</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>104</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.5659999999999999</v>
+      </c>
+      <c r="N74" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="O74" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>115.3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>1</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4941,7 +5002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4968,11 +5029,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4981,11 +5042,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4994,11 +5055,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -5007,92 +5068,79 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45386</v>
+        <v>45388</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45388</v>
+        <v>45391</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
         <v>0</v>
       </c>
     </row>
